--- a/R_C14_rates calculation/data_used/C14_studies.xlsx
+++ b/R_C14_rates calculation/data_used/C14_studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/data_used/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C356257-527D-CA41-963C-4E7D0FEC8DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6788E43B-56F2-0646-A562-85901857FC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="-5140" windowWidth="32000" windowHeight="17540" xr2:uid="{52B9FA18-B311-7847-A71C-E6E77E9CBC4B}"/>
+    <workbookView xWindow="25580" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{52B9FA18-B311-7847-A71C-E6E77E9CBC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="189">
   <si>
     <t>Study</t>
   </si>
@@ -499,6 +499,111 @@
   </si>
   <si>
     <t>50 S – 55 S</t>
+  </si>
+  <si>
+    <t>&lt; 2</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>&lt; 5</t>
+  </si>
+  <si>
+    <t>Pico 1 + Pico 2</t>
+  </si>
+  <si>
+    <t>&lt; 1</t>
+  </si>
+  <si>
+    <t>12-14 h</t>
+  </si>
+  <si>
+    <t>3-8 h</t>
+  </si>
+  <si>
+    <t>Filtered, FISH</t>
+  </si>
+  <si>
+    <t>Filtered, 18S V4</t>
+  </si>
+  <si>
+    <t>FCM, 18S V4</t>
+  </si>
+  <si>
+    <t>DNA sequencing</t>
+  </si>
+  <si>
+    <t>FCM, 18S V4 and V9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtered, chloroplast 16S </t>
+  </si>
+  <si>
+    <t>Avg cell size (um)</t>
+  </si>
+  <si>
+    <t>Lat range (°)</t>
+  </si>
+  <si>
+    <t>Lat band</t>
+  </si>
+  <si>
+    <t>Sampling depth</t>
+  </si>
+  <si>
+    <t>10 to 100 m</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SUR, DCM</t>
+  </si>
+  <si>
+    <t>30°N</t>
+  </si>
+  <si>
+    <t>40°S</t>
+  </si>
+  <si>
+    <t>44°S</t>
+  </si>
+  <si>
+    <t>20°S – 30°S</t>
+  </si>
+  <si>
+    <t>30°N – 40°N</t>
+  </si>
+  <si>
+    <t>50°S – 55°S</t>
+  </si>
+  <si>
+    <t>22°N</t>
+  </si>
+  <si>
+    <t>12°N – 26°N</t>
+  </si>
+  <si>
+    <t>20°N – 40°S</t>
+  </si>
+  <si>
+    <t>30°N – 30°S</t>
+  </si>
+  <si>
+    <t>30°N – 15°S</t>
+  </si>
+  <si>
+    <t>0° – 40°S</t>
+  </si>
+  <si>
+    <t>22°N – 33°N</t>
+  </si>
+  <si>
+    <t>FCM, petB</t>
   </si>
 </sst>
 </file>
@@ -558,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,6 +678,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -891,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9D9511-25B3-5E41-B546-94EF8A5BB114}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3108,7 +3216,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C35"/>
+      <selection activeCell="A5" sqref="A5:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4013,905 +4121,2014 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D187953D-2725-B940-BC52-CC9C71F37EA8}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1994</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2">
         <v>0.82</v>
       </c>
-      <c r="H2">
+      <c r="N2">
         <v>7.68</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1994</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3">
         <v>17.93</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>193.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>2010</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
+        <v>182</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4">
         <v>3.4</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2010</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
+      <c r="B5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
+        <v>182</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="4">
+        <v>19</v>
+      </c>
+      <c r="N5" s="4">
+        <v>85.5</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" s="4">
+        <v>86.1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>425.5</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="N7" s="4">
+        <v>13.04</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="N8" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="N9" s="4">
+        <v>15.84</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="4">
+        <v>59.46</v>
+      </c>
+      <c r="N10" s="4">
+        <v>94.94</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N11">
+        <v>6.67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>173</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="N13" s="5">
+        <v>98.2</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="5">
+        <v>229.02</v>
+      </c>
+      <c r="N14" s="5">
+        <v>340.45</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="N15" s="2">
+        <v>29.75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16">
+        <v>4.7</v>
+      </c>
+      <c r="N16">
+        <v>5.9</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17">
+        <v>2.7</v>
+      </c>
+      <c r="N17">
+        <v>3.8</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18">
+        <v>8.1</v>
+      </c>
+      <c r="N18">
+        <v>14.3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N19">
+        <v>17.5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="N21" s="2">
+        <v>18.47</v>
+      </c>
+      <c r="O21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="N22" s="2">
+        <v>8</v>
+      </c>
+      <c r="O22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="N23" s="2">
+        <v>56.6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" s="2">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="N24" s="2">
+        <v>151.4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" t="s">
+        <v>173</v>
+      </c>
+      <c r="M25" s="5">
+        <v>57.2</v>
+      </c>
+      <c r="N25" s="5">
+        <v>99.4</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="H5">
-        <v>258.39999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2011</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>3.17</v>
-      </c>
-      <c r="H6">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="H7" s="2">
-        <v>29.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>7.5</v>
-      </c>
-      <c r="H8">
-        <v>94.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="H9">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>4.7</v>
-      </c>
-      <c r="H10">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>2.7</v>
-      </c>
-      <c r="H11">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>8.1</v>
-      </c>
-      <c r="H12">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H13">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26">
+        <v>8.33</v>
+      </c>
+      <c r="N26">
+        <v>11.67</v>
+      </c>
+      <c r="O26" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" t="s">
+        <v>173</v>
+      </c>
+      <c r="M27">
+        <v>3.33</v>
+      </c>
+      <c r="N27">
+        <v>7.08</v>
+      </c>
+      <c r="O27" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>8.33</v>
-      </c>
-      <c r="H14">
-        <v>11.67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F28" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28">
+        <v>13.3</v>
+      </c>
+      <c r="N28">
+        <v>22.5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>121</v>
+      </c>
+      <c r="P28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
         <v>52</v>
       </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>3.33</v>
-      </c>
-      <c r="H15">
-        <v>7.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29">
+        <v>22.92</v>
+      </c>
+      <c r="N29">
+        <v>25.83</v>
+      </c>
+      <c r="O29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>16.29</v>
-      </c>
-      <c r="H16">
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" t="s">
+        <v>173</v>
+      </c>
+      <c r="M30">
+        <v>57.92</v>
+      </c>
+      <c r="N30">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="O30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>22.92</v>
-      </c>
-      <c r="H17">
+      <c r="F31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" t="s">
+        <v>173</v>
+      </c>
+      <c r="M31">
+        <v>30.83</v>
+      </c>
+      <c r="N31">
         <v>182.08</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>0.64</v>
-      </c>
-      <c r="H18">
-        <v>55.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19">
-        <v>1.87</v>
-      </c>
-      <c r="H19">
-        <v>90.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="H21" s="2">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="H22" s="2">
-        <v>10.63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="H23" s="2">
-        <v>13.93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2">
-        <v>15.73</v>
-      </c>
-      <c r="H24" s="2">
-        <v>117.61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="H25" s="2">
-        <v>83.78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="H26" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="2">
-        <v>28.9</v>
-      </c>
-      <c r="H27" s="2">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="2">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="H28" s="2">
-        <v>151.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4.96</v>
-      </c>
-      <c r="H30" s="2">
-        <v>18.47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="2">
-        <v>3.69</v>
-      </c>
-      <c r="H31" s="2">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="2">
+        <v>179</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" t="s">
+        <v>173</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="N32" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" t="s">
+        <v>161</v>
+      </c>
+      <c r="L33" t="s">
+        <v>173</v>
+      </c>
+      <c r="M33" s="2">
         <v>32.24</v>
       </c>
-      <c r="H32" s="2">
+      <c r="N33" s="2">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="O33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2.15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" t="s">
+        <v>174</v>
+      </c>
+      <c r="M34">
+        <v>0.64</v>
+      </c>
+      <c r="N34">
+        <v>55.45</v>
+      </c>
+      <c r="O34" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2.15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" t="s">
+        <v>174</v>
+      </c>
+      <c r="M35">
+        <v>1.87</v>
+      </c>
+      <c r="N35">
+        <v>90.05</v>
+      </c>
+      <c r="O35" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="H33" s="2">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="2">
-        <v>32.6</v>
-      </c>
-      <c r="H34" s="2">
-        <v>340.45</v>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" t="s">
+        <v>174</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="O36" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" t="s">
+        <v>174</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="N37" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="O37" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" t="s">
+        <v>174</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="N38" s="2">
+        <v>10.63</v>
+      </c>
+      <c r="O38" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" t="s">
+        <v>174</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="N39" s="2">
+        <v>13.93</v>
+      </c>
+      <c r="O39" t="s">
+        <v>121</v>
+      </c>
+      <c r="P39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" t="s">
+        <v>174</v>
+      </c>
+      <c r="M40" s="2">
+        <v>15.73</v>
+      </c>
+      <c r="N40" s="2">
+        <v>117.61</v>
+      </c>
+      <c r="O40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" t="s">
+        <v>174</v>
+      </c>
+      <c r="M41" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="N41" s="2">
+        <v>83.78</v>
+      </c>
+      <c r="O41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
